--- a/resources/coffee_machine/all_modules/transitions/Coffee_Counter.xlsx
+++ b/resources/coffee_machine/all_modules/transitions/Coffee_Counter.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t xml:space="preserve">SRS_ID</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">T_Inc, V_0</t>
   </si>
   <si>
-    <t xml:space="preserve">S_Inc, V_1</t>
+    <t xml:space="preserve">V_1</t>
   </si>
   <si>
     <t xml:space="preserve">Coffee_Counter_SRS_2</t>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">T_Inc, V_1</t>
   </si>
   <si>
-    <t xml:space="preserve">S_Inc, V_2</t>
+    <t xml:space="preserve">V_2</t>
   </si>
   <si>
     <t xml:space="preserve">Coffee_Counter_SRS_3</t>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">T_Inc, V_2</t>
   </si>
   <si>
-    <t xml:space="preserve">S_Inc, V_3</t>
+    <t xml:space="preserve">V_3</t>
   </si>
   <si>
     <t xml:space="preserve">Coffee_Counter_SRS_4</t>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">T_Inc, V_3</t>
   </si>
   <si>
-    <t xml:space="preserve">S_Inc, V_4</t>
+    <t xml:space="preserve">V_4</t>
   </si>
   <si>
     <t xml:space="preserve">Coffee_Counter_SRS_5</t>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">T_Inc, V_4</t>
   </si>
   <si>
-    <t xml:space="preserve">S_Inc, V_5</t>
+    <t xml:space="preserve">V_5</t>
   </si>
   <si>
     <t xml:space="preserve">Coffee_Counter_SRS_6</t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">T_Inc, V_5</t>
   </si>
   <si>
-    <t xml:space="preserve">S_Inc, V_6</t>
+    <t xml:space="preserve">V_6</t>
   </si>
   <si>
     <t xml:space="preserve">Coffee_Counter_SRS_7</t>
@@ -91,82 +91,52 @@
     <t xml:space="preserve">T_Inc, V_6</t>
   </si>
   <si>
-    <t xml:space="preserve">S_Inc, V_7</t>
+    <t xml:space="preserve">V_7</t>
   </si>
   <si>
     <t xml:space="preserve">Coffee_Counter_SRS_8</t>
   </si>
   <si>
-    <t xml:space="preserve">T_Inc, V_7</t>
+    <t xml:space="preserve">T_Dec, V_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V_0</t>
   </si>
   <si>
     <t xml:space="preserve">Coffee_Counter_SRS_9</t>
   </si>
   <si>
-    <t xml:space="preserve">T_Dec, V_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_Dec, V_0</t>
+    <t xml:space="preserve">T_Dec, V_2</t>
   </si>
   <si>
     <t xml:space="preserve">Coffee_Counter_SRS_10</t>
   </si>
   <si>
-    <t xml:space="preserve">T_Dec, V_1</t>
+    <t xml:space="preserve">T_Dec, V_3</t>
   </si>
   <si>
     <t xml:space="preserve">Coffee_Counter_SRS_11</t>
   </si>
   <si>
-    <t xml:space="preserve">T_Dec, V_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_Dec, V_1</t>
+    <t xml:space="preserve">T_Dec, V_4</t>
   </si>
   <si>
     <t xml:space="preserve">Coffee_Counter_SRS_12</t>
   </si>
   <si>
-    <t xml:space="preserve">T_Dec, V_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_Dec, V_2</t>
+    <t xml:space="preserve">T_Dec, V_5</t>
   </si>
   <si>
     <t xml:space="preserve">Coffee_Counter_SRS_13</t>
   </si>
   <si>
-    <t xml:space="preserve">T_Dec, V_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_Dec, V_3</t>
+    <t xml:space="preserve">T_Dec, V_6</t>
   </si>
   <si>
     <t xml:space="preserve">Coffee_Counter_SRS_14</t>
   </si>
   <si>
-    <t xml:space="preserve">T_Dec, V_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_Dec, V_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coffee_Counter_SRS_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_Dec, V_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_Dec, V_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coffee_Counter_SRS_16</t>
-  </si>
-  <si>
     <t xml:space="preserve">T_Dec, V_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_Dec, V_6</t>
   </si>
 </sst>
 </file>
@@ -356,10 +326,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -467,18 +437,18 @@
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -489,7 +459,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -500,62 +470,40 @@
         <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
